--- a/routes/Plant_userdata.xlsx
+++ b/routes/Plant_userdata.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b027ff85dd105e19/Documents/GitHub/Plant003_Nanliu Manufacturing India Private Limited/Nanliu_Manufacturing_India_Private_Limited/routes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_40B6263766D249A56AC68134DD2A28665620DE34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB82BF07-04EC-4914-B55F-A0CCCB10FCDB}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>SlNO</t>
   </si>
@@ -77,24 +86,72 @@
   </si>
   <si>
     <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>Nanliu1</t>
+  </si>
+  <si>
+    <t>Nanliu2</t>
+  </si>
+  <si>
+    <t>Nanliu3</t>
+  </si>
+  <si>
+    <t>nanliu1231</t>
+  </si>
+  <si>
+    <t>nanliu1232</t>
+  </si>
+  <si>
+    <t>nanliu1233</t>
+  </si>
+  <si>
+    <t>manisekar@nanliugroup.com</t>
+  </si>
+  <si>
+    <t>aravinth@nanliugroup.com</t>
+  </si>
+  <si>
+    <t>weiteddy@nanliugroup.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,11 +159,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -120,41 +183,53 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{6088F761-784C-4D5A-B61A-51E78F405547}"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -344,20 +419,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -389,9 +472,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -403,21 +486,21 @@
         <v>12</v>
       </c>
       <c r="E2" s="3">
-        <v>9.945906965E9</v>
+        <v>9945906965</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10">
       <c r="A3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -429,21 +512,21 @@
         <v>16</v>
       </c>
       <c r="E3" s="3">
-        <v>9.686873898E9</v>
+        <v>9686873898</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>18</v>
@@ -455,19 +538,93 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>1.23456789E9</v>
+        <v>1234567890</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9">
+        <v>8940698525</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9">
+        <v>6353211343</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9">
+        <v>6353211344</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="6">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{9E523956-AE74-4D6C-A3E2-7816EEF94E5E}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{3274F6FD-C4E8-4FA5-85D7-3F9F39221937}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{3ECA8E5E-76B4-4F84-8453-F3D3FC8EE99E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/routes/Plant_userdata.xlsx
+++ b/routes/Plant_userdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b027ff85dd105e19/Documents/GitHub/Plant003_Nanliu Manufacturing India Private Limited/Nanliu_Manufacturing_India_Private_Limited/routes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aureo\OneDrive\Documents\GitHub\GreenInkTechnologies-SWANSON\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_40B6263766D249A56AC68134DD2A28665620DE34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB82BF07-04EC-4914-B55F-A0CCCB10FCDB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA3CD27-8C72-4E5B-9A6D-FC96FE3B159E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>SlNO</t>
   </si>
@@ -76,43 +76,118 @@
     <t>hsamogh04@gmail.com</t>
   </si>
   <si>
-    <t>Testuser</t>
-  </si>
-  <si>
-    <t>pass@123</t>
-  </si>
-  <si>
-    <t>PlantOperator</t>
-  </si>
-  <si>
-    <t>test@gmail.com</t>
-  </si>
-  <si>
-    <t>Nanliu1</t>
-  </si>
-  <si>
-    <t>Nanliu2</t>
-  </si>
-  <si>
-    <t>Nanliu3</t>
-  </si>
-  <si>
-    <t>nanliu1231</t>
-  </si>
-  <si>
-    <t>nanliu1232</t>
-  </si>
-  <si>
-    <t>nanliu1233</t>
-  </si>
-  <si>
-    <t>manisekar@nanliugroup.com</t>
-  </si>
-  <si>
-    <t>aravinth@nanliugroup.com</t>
-  </si>
-  <si>
-    <t>weiteddy@nanliugroup.com</t>
+    <t>siddesh.mainkar</t>
+  </si>
+  <si>
+    <t>Siddesh@123</t>
+  </si>
+  <si>
+    <t>Asst. Executive QC</t>
+  </si>
+  <si>
+    <t>siddesh@swanson.co.in</t>
+  </si>
+  <si>
+    <t>SPI0108</t>
+  </si>
+  <si>
+    <t>pravin.parab</t>
+  </si>
+  <si>
+    <t>Pravin@123</t>
+  </si>
+  <si>
+    <t>QC Inspector</t>
+  </si>
+  <si>
+    <t>pravin@swanson.co.in</t>
+  </si>
+  <si>
+    <t>SPI0173</t>
+  </si>
+  <si>
+    <t>vasudevan.chari</t>
+  </si>
+  <si>
+    <t>Vasudevan@123</t>
+  </si>
+  <si>
+    <t>QA Officer</t>
+  </si>
+  <si>
+    <t>qa@swanson.co.in</t>
+  </si>
+  <si>
+    <t>SPI0140</t>
+  </si>
+  <si>
+    <t>suvarna.parab</t>
+  </si>
+  <si>
+    <t>Suvarna@123</t>
+  </si>
+  <si>
+    <t>QC Executive</t>
+  </si>
+  <si>
+    <t>suvarna@swanson.co.in</t>
+  </si>
+  <si>
+    <t>SPI0141</t>
+  </si>
+  <si>
+    <t>asmita.tari</t>
+  </si>
+  <si>
+    <t>Asmita@123</t>
+  </si>
+  <si>
+    <t>asmita@swanson.co.in</t>
+  </si>
+  <si>
+    <t>SPI0098</t>
+  </si>
+  <si>
+    <t>babaji.gaonkar</t>
+  </si>
+  <si>
+    <t>Babaji@123</t>
+  </si>
+  <si>
+    <t>Asst. Manager QA</t>
+  </si>
+  <si>
+    <t>babaji@swanson.co.in</t>
+  </si>
+  <si>
+    <t>SPI0181</t>
+  </si>
+  <si>
+    <t>raghu.baykar</t>
+  </si>
+  <si>
+    <t>Raghu@123</t>
+  </si>
+  <si>
+    <t>spiqc@swanson.co.in</t>
+  </si>
+  <si>
+    <t>SPI0185</t>
+  </si>
+  <si>
+    <t>manohar.satkhalkar</t>
+  </si>
+  <si>
+    <t>Manohar@123</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>manohar@swanson.co.in</t>
+  </si>
+  <si>
+    <t>SPI0124</t>
   </si>
 </sst>
 </file>
@@ -192,23 +267,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -429,18 +508,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +540,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -472,7 +553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="12.75">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -491,14 +572,14 @@
       <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="9">
         <v>1</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="12.75">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -517,14 +598,14 @@
       <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="9">
         <v>2</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="12.75">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -538,13 +619,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>1234567890</v>
+        <v>9545299529</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3">
-        <v>3</v>
+      <c r="G4" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -555,22 +636,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="9">
-        <v>8940698525</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="6">
-        <v>4</v>
+      <c r="E5" s="6">
+        <v>9834706069</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
@@ -578,22 +659,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="9">
-        <v>6353211343</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="6">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="E6" s="6">
+        <v>9764658004</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
@@ -601,30 +682,117 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="6">
+        <v>8888884754</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="9">
-        <v>6353211344</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="6">
-        <v>6</v>
+      <c r="E8">
+        <v>8459474919</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>7798687267</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>9370230501</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>8805018631</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{9E523956-AE74-4D6C-A3E2-7816EEF94E5E}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{3274F6FD-C4E8-4FA5-85D7-3F9F39221937}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{3ECA8E5E-76B4-4F84-8453-F3D3FC8EE99E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/routes/Plant_userdata.xlsx
+++ b/routes/Plant_userdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aureo\OneDrive\Documents\GitHub\GreenInkTechnologies-SWANSON\routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_v2/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA3CD27-8C72-4E5B-9A6D-FC96FE3B159E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{9BA3CD27-8C72-4E5B-9A6D-FC96FE3B159E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5BC07FD-116D-4A5D-965F-56F45331CBA4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>SlNO</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>SPI0124</t>
+  </si>
+  <si>
+    <t>pravin.pirankar</t>
+  </si>
+  <si>
+    <t>Pravinp@123</t>
+  </si>
+  <si>
+    <t>SPI0179</t>
   </si>
 </sst>
 </file>
@@ -229,12 +238,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -247,16 +262,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -266,26 +281,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -508,291 +530,342 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="10"/>
+    <col min="7" max="7" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="3">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="8">
         <v>9945906965</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="8">
         <v>9686873898</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>2</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="3">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="8">
         <v>9545299529</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="10">
         <v>9834706069</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="10">
         <v>9764658004</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="10">
         <v>8888884754</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="12">
         <v>8459474919</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="13" t="s">
         <v>41</v>
       </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="12">
         <v>7798687267</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="3">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="12">
         <v>9370230501</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="13" t="s">
         <v>50</v>
       </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="3">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="12">
         <v>8805018631</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="13" t="s">
         <v>55</v>
       </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9049388415</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{02D25ED4-A45E-4962-9324-FC646E1947DE}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{A4AFA7AB-1780-41DA-9795-86626DC3C3BB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/routes/Plant_userdata.xlsx
+++ b/routes/Plant_userdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_v2/GreenInkTechnologies-SWANSON/routes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aureoleinc-my.sharepoint.com/personal/suraj_patil_vegam_co/Documents/Documents/GitHub/GreenInkTechnologies-SWANSON_latest/GreenInkTechnologies-SWANSON/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{9BA3CD27-8C72-4E5B-9A6D-FC96FE3B159E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5BC07FD-116D-4A5D-965F-56F45331CBA4}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{9BA3CD27-8C72-4E5B-9A6D-FC96FE3B159E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E00D4EC-159F-4669-B5AC-45FEB6929058}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="750" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t>SlNO</t>
   </si>
@@ -197,13 +197,40 @@
   </si>
   <si>
     <t>SPI0179</t>
+  </si>
+  <si>
+    <t>spiqc@usig.com</t>
+  </si>
+  <si>
+    <t>raghu.bayenkar</t>
+  </si>
+  <si>
+    <t>Raghub@123</t>
+  </si>
+  <si>
+    <t>vinayak.gaonkar</t>
+  </si>
+  <si>
+    <t>Vinayak@123</t>
+  </si>
+  <si>
+    <t>SPI0220</t>
+  </si>
+  <si>
+    <t>devdatt.gaonkar</t>
+  </si>
+  <si>
+    <t>Devdatt@123</t>
+  </si>
+  <si>
+    <t>SPI0224</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -237,8 +264,14 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +281,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,7 +320,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -309,6 +348,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -530,10 +575,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J12"/>
+      <selection activeCell="H12" sqref="H12:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -861,10 +906,120 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="14">
+        <v>9049388415</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="14">
+        <v>9370230501</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="14">
+        <v>9130490135</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A16" s="2">
+        <v>11</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="14">
+        <v>8766560472</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1" xr:uid="{02D25ED4-A45E-4962-9324-FC646E1947DE}"/>
     <hyperlink ref="F12" r:id="rId2" xr:uid="{A4AFA7AB-1780-41DA-9795-86626DC3C3BB}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{B8121FA5-A086-4EC1-A08D-A7E3FFC164D7}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{B93F3E16-D89C-46D6-8BB6-CC97182CCA6C}"/>
+    <hyperlink ref="C15" r:id="rId5" xr:uid="{994CD284-DFCF-419A-A9E1-7829B06C5A1E}"/>
+    <hyperlink ref="C16" r:id="rId6" xr:uid="{758546F4-0BD5-4027-9FBC-3F615EC79DD9}"/>
+    <hyperlink ref="F13" r:id="rId7" xr:uid="{4A9B01F3-900A-45D6-B496-A120BB905710}"/>
+    <hyperlink ref="F14:F16" r:id="rId8" display="spiqc@usig.com" xr:uid="{52B4F6DE-9804-416A-91D1-B082CF89614A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
